--- a/Case/rlz-add4-param.xlsx
+++ b/Case/rlz-add4-param.xlsx
@@ -70,12 +70,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模板1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>重要模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_002</t>
   </si>
 </sst>
 </file>
@@ -478,7 +477,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -540,7 +539,7 @@
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -552,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>8</v>
